--- a/DecoderTables.xlsx
+++ b/DecoderTables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>C</t>
   </si>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,16 +98,41 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,15 +140,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,12 +740,271 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
       <c r="N21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>3</v>
       </c>
@@ -701,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>2</v>
       </c>
@@ -721,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>1</v>
       </c>
@@ -741,12 +1061,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
         <v>4</v>
       </c>
@@ -763,7 +1083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
         <v>2</v>
       </c>
@@ -783,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>1</v>
       </c>
@@ -803,7 +1123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>5</v>
       </c>
@@ -820,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="11:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>2</v>
       </c>
